--- a/docs/agile/epics_and_user_stories.xlsx
+++ b/docs/agile/epics_and_user_stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>User</t>
   </si>
@@ -43,13 +43,6 @@
   </si>
   <si>
     <t>USER STORY US01: Intuitive User Interface #2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. An intuitive User Interface with easy to use navigation
-2. A means of viewing the full list o blogs including likes
-3. Functionality to allow users to register, sign in and sign out
-4. Upon signing in, the user should be able to like, comment on the blog posts
-</t>
   </si>
   <si>
     <t>User Stories Link</t>
@@ -173,6 +166,275 @@
   </si>
   <si>
     <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/6</t>
+  </si>
+  <si>
+    <t>USER STORY US05: Account Creation#7</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Site user I can create an account by registering my details so that I can comment, like, create and edit lab log posts
+</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that unregistered/new user visits the website
+When they click the "Register" button/"Sign Up" link
+Then they are directed "Sign Up" form</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that unregistered user fills the "Sign Up" form
+When they enter the valid username and email address
+Then the system will proceed to register</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 3:
+Given that unregistered user fills the "Sign Up" form
+When they enter the same username and email address using which they used once for registration
+Then the system would not be able to register</t>
+  </si>
+  <si>
+    <t>USER STORY US06: Account Confirmation #8</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/8</t>
+  </si>
+  <si>
+    <t>As a Site user I can I get a message upon signing up so that I can know that my account registration was successful</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that the user is on Sign Up form
+When they enter their valid details
+Then they can can see a message prompting they have been signed up</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that the user is on Sign Up form
+When they enter their valid details
+Then they can can see a User's page link in the navigation menu</t>
+  </si>
+  <si>
+    <t>USER STORY US07: Sign In and Sign Out Features #9</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/9</t>
+  </si>
+  <si>
+    <t>As a registered Site user I can easily Sign in or Sign Out so that I can access my personal posts and comments</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that a registered user visits the website
+When they click on Sign in link in navigation menu
+Then they can see a "Sign in" form asking for my Username and Password</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that a registered user visits the website
+When they are signed-in
+Then navigation bar should indicate if user is signed-in and the "Sign Out" option should appear in the navigation menu</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 3:
+Given that a registered user visits the website
+When they sign-in
+Then they are directed their personal (My Page) page containing the posts created by them</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 4:
+Given that a registered user visits the website
+When they click Sign Out link
+Then they are signed out and they are redirected to homepage</t>
+  </si>
+  <si>
+    <t>USER STORY US 08: User Personal Page Features#10</t>
+  </si>
+  <si>
+    <t>As a registered Site user I can see my personal page so that I can create my own lab log post posts and edit or delete them</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that a new registered user who has not created any lab log posts yet
+When they sign in
+Then they shall be prompted that no lab log post posts exist and that they can "Add New Post"</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that a registered user
+When they sign in
+Then they can see and access the list of personal lab log post posts created by them</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 3:
+Given that the user who has created lab log post posts
+When they are signed in
+Then they can still see "Add New Post" and the list of the posts created along with Edit and Delete options</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/10</t>
+  </si>
+  <si>
+    <t>EPIC 03: Lab Log Post Management#11</t>
+  </si>
+  <si>
+    <t>1. Create lab log posts
+2. View their created lab log posts
+3. Update/Edit personalized lab log posts
+4. Delete lab log posts</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/11</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/3</t>
+  </si>
+  <si>
+    <t>USER STORY US09: Add Lab Log Posts#12</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/12</t>
+  </si>
+  <si>
+    <t>As a signed-in Site user I can create a lab log post so that I can share my ideas and experiments</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that the site user is signed in
+When they are on their personal page and haven't created any post yet
+Then they will be prompted to add a post with a message that there are no posts created yet</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that site user is signed in
+When they are on their personal page
+Then they can choose to create/add a new lab log post</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 3:
+Given that signed in site user adds a lab log post
+When they click to save the post
+Then the post gets it is enlisted in my page log posts and also on the main list of lab log posts available for others to read</t>
+  </si>
+  <si>
+    <t>USER STORY US 10: View/Read Lab Log Posts #13</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/13</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that the signed-in user creates/adds a post
+When they save their post
+Then their post containing the author's name i.e. their username shall be displayed among other posts on homepage and lab log page</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/14</t>
+  </si>
+  <si>
+    <t>USER STORY US 11: Edit Lab Log Posts #14</t>
+  </si>
+  <si>
+    <t>As a signed-in site user I can edit and update a lab log post I created so that I can make additions, edit, correct the entries I made in the post</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that a signed-in site user who has created a lab log post visits personalized web-page
+When navigate to their created lab log post
+Then they can see an edit button using which they edit the details and update changes</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that a signed-in site user who made the edit
+When navigate to the homepage, lab logs and log details pages
+Then they can see that the updated version of the created post reflects on the web-pages</t>
+  </si>
+  <si>
+    <t>USER STORY US 12: Delete Lab Log Posts#15</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/15</t>
+  </si>
+  <si>
+    <t>As a signed-in site user I can choose to delete a lab log post I created so that I publish only the posts of my choice</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that site user who has created a lab log post in the personalized web-page
+When clicks delete button next to their post
+Then they can delete the post from homepage, lab logs page and personalized web-page</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/16</t>
+  </si>
+  <si>
+    <t>EPIC 04: Comments/Likes Management #16</t>
+  </si>
+  <si>
+    <t>1. Add and see Comments. 
+2. Add/remove Likes</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/17</t>
+  </si>
+  <si>
+    <t>USER STORY US 13: Post Comments #17</t>
+  </si>
+  <si>
+    <t>As a signed-in site user I can add a comment on any lab log posts so that I can express my opinion about a topic of my choice</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that a registered/unregistered site user visits the lab log details page
+When they go to the comment section under the selected full page view of a lab log post
+Then they can read all the comments with username and the date it was created</t>
+  </si>
+  <si>
+    <t>USER STORY US 14: Site Owners Approval of Comments #18</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/18</t>
+  </si>
+  <si>
+    <t>As a site owner and admin I can review and then approve or disapprove comments so that unsuitable comment can be filtered out as children also would be site users</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that I am the site owner/admin visits the lab log post
+When I see an inappropriate/unsuitable comment posted by any user
+Then I can select one or more comments to approve from the admin page</t>
+  </si>
+  <si>
+    <t>USER STORY US 15: Add or Remove Likes on a Post#19</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/19</t>
+  </si>
+  <si>
+    <t>As a signed-in site user I can add like to the lab log posts I liked so that I can guide other users to select simple experiments that may be more interesting</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that a signed-in site user
+When visits the log post of their liking
+Then they have the option to add or remove like by selecting the Like button on the post along with the number of likes the post received</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that site user who is not registered
+When they visit the homepage or lab log posts
+Then they can see the total number of likes a lab log post post received</t>
+  </si>
+  <si>
+    <t>As a signed-in Site user who created a lab log post I can read my post with my name among other posts on homepage so that I can share my posts with others.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 4:
+Given that the user who visits personal page
+When they are signed in
+Then they can see an update profile option which allows them to update or even delete their account</t>
   </si>
   <si>
     <t>1. Easy registration of an account
@@ -180,277 +442,76 @@
 3. Confirmation upon signing in
 4. Upon signing in, the user should be able to like, comment on the lab log post posts
 5. Easy access to Create, Read, Update and Delete (CRUD) features upon signing in
-6. Visibility of personalized lab log post posts and comments</t>
-  </si>
-  <si>
-    <t>USER STORY US05: Account Creation#7</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Site user I can create an account by registering my details so that I can comment, like, create and edit lab log posts
-</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that unregistered/new user visits the website
-When they click the "Register" button/"Sign Up" link
-Then they are directed "Sign Up" form</t>
+6. Visibility of personalized lab log post posts and comments
+7. Profile page update features</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/22</t>
+  </si>
+  <si>
+    <t>US17: Profile page #22</t>
+  </si>
+  <si>
+    <t>As a user, I can see profile update option, so that I can update my profile info</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that the signed in user is on their personal page
+When they can a profile update button
+Then they can update or delete their profile</t>
   </si>
   <si>
     <t>Acceptance Criteria 2:
-Given that unregistered user fills the "Sign Up" form
-When they enter the valid username and email address
-Then the system will proceed to register</t>
+Given that the signed in user edits their profile
+When they click submit
+Then they receive a message and the updates would reflect on their personal page</t>
+  </si>
+  <si>
+    <t>1. An intuitive User Interface with easy to use navigation
+2. A means of viewing the full list o blogs including likes
+3. Functionality to allow users to register, sign in and sign out
+4. Upon signing in, the user should be able to like, comment on the blog posts
+5. User can easily sort lab log posts based on the titles</t>
+  </si>
+  <si>
+    <t>USER STORY US16: Sorting and Searching #20</t>
+  </si>
+  <si>
+    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/20</t>
+  </si>
+  <si>
+    <t>As a Site user I can see distinct search criteria so that I can sort and find the log posts easily</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 1:
+Given that new/returning user visits the Lab Logs page
+When they can see a dropdown menu with options of selecting different titles
+Then they can select a log post directly from the menu list and don't need to scroll down and find the posts</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria 2:
+Given that new/returning user is on a lab log post
+When they can see a category tag
+Then they can identify what is the difficulty level of the experiment</t>
   </si>
   <si>
     <t>Acceptance Criteria 3:
-Given that unregistered user fills the "Sign Up" form
-When they enter the same username and email address using which they used once for registration
-Then the system would not be able to register</t>
-  </si>
-  <si>
-    <t>USER STORY US06: Account Confirmation #8</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/8</t>
-  </si>
-  <si>
-    <t>As a Site user I can I get a message upon signing up so that I can know that my account registration was successful</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that the user is on Sign Up form
-When they enter their valid details
-Then they can can see a message prompting they have been signed up</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 2:
-Given that the user is on Sign Up form
-When they enter their valid details
-Then they can can see a User's page link in the navigation menu</t>
-  </si>
-  <si>
-    <t>USER STORY US07: Sign In and Sign Out Features #9</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/9</t>
-  </si>
-  <si>
-    <t>As a registered Site user I can easily Sign in or Sign Out so that I can access my personal posts and comments</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that a registered user visits the website
-When they click on Sign in link in navigation menu
-Then they can see a "Sign in" form asking for my Username and Password</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 2:
-Given that a registered user visits the website
-When they are signed-in
-Then navigation bar should indicate if user is signed-in and the "Sign Out" option should appear in the navigation menu</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 3:
-Given that a registered user visits the website
-When they sign-in
-Then they are directed their personal (My Page) page containing the posts created by them</t>
+Given that new/returning user visits the Lab Logs nav link
+When they can see a dropdown menu with options in an alphabetical order
+Then they can select a log post easily</t>
   </si>
   <si>
     <t>Acceptance Criteria 4:
-Given that a registered user visits the website
-When they click Sign Out link
-Then they are signed out and they are redirected to homepage</t>
-  </si>
-  <si>
-    <t>USER STORY US 08: User Personal Page Features#10</t>
-  </si>
-  <si>
-    <t>As a registered Site user I can see my personal page so that I can create my own lab log post posts and edit or delete them</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that a new registered user who has not created any lab log posts yet
-When they sign in
-Then they shall be prompted that no lab log post posts exist and that they can "Add New Post"</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 2:
-Given that a registered user
-When they sign in
-Then they can see and access the list of personal lab log post posts created by them</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 3:
-Given that the user who has created lab log post posts
-When they are signed in
-Then they can still see "Add New Post" and the list of the posts created along with Edit and Delete options</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/10</t>
-  </si>
-  <si>
-    <t>EPIC 03: Lab Log Post Management#11</t>
-  </si>
-  <si>
-    <t>1. Create lab log posts
-2. View their created lab log posts
-3. Update/Edit personalized lab log posts
-4. Delete lab log posts</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/11</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/3</t>
-  </si>
-  <si>
-    <t>USER STORY US09: Add Lab Log Posts#12</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/12</t>
-  </si>
-  <si>
-    <t>As a signed-in Site user I can create a lab log post so that I can share my ideas and experiments</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that the site user is signed in
-When they are on their personal page and haven't created any post yet
-Then they will be prompted to add a post with a message that there are no posts created yet</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 2:
-Given that site user is signed in
-When they are on their personal page
-Then they can choose to create/add a new lab log post</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 3:
-Given that signed in site user adds a lab log post
-When they click to save the post
-Then the post gets it is enlisted in my page log posts and also on the main list of lab log posts available for others to read</t>
-  </si>
-  <si>
-    <t>USER STORY US 10: View/Read Lab Log Posts #13</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/13</t>
-  </si>
-  <si>
-    <t>As a signed-in Site user who created a lab log post I can read my post with my name among other posts on homepage so that I can share my posts with others</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that the signed-in user creates/adds a post
-When they save their post
-Then their post containing the author's name i.e. their username shall be displayed among other posts on homepage and lab log page</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/14</t>
-  </si>
-  <si>
-    <t>USER STORY US 11: Edit Lab Log Posts #14</t>
-  </si>
-  <si>
-    <t>As a signed-in site user I can edit and update a lab log post I created so that I can make additions, edit, correct the entries I made in the post</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that a signed-in site user who has created a lab log post visits personalized web-page
-When navigate to their created lab log post
-Then they can see an edit button using which they edit the details and update changes</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 2:
-Given that a signed-in site user who made the edit
-When navigate to the homepage, lab logs and log details pages
-Then they can see that the updated version of the created post reflects on the web-pages</t>
-  </si>
-  <si>
-    <t>USER STORY US 12: Delete Lab Log Posts#15</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/15</t>
-  </si>
-  <si>
-    <t>As a signed-in site user I can choose to delete a lab log post I created so that I publish only the posts of my choice</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that site user who has created a lab log post in the personalized web-page
-When clicks delete button next to their post
-Then they can delete the post from homepage, lab logs page and personalized web-page</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/16</t>
-  </si>
-  <si>
-    <t>EPIC 04: Comments/Likes Management #16</t>
-  </si>
-  <si>
-    <t>1. Add and see Comments. 
-2. Add/remove Likes</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/17</t>
-  </si>
-  <si>
-    <t>USER STORY US 13: Post Comments #17</t>
-  </si>
-  <si>
-    <t>As a signed-in site user I can add a comment on any lab log posts so that I can express my opinion about a topic of my choice</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that a registered/unregistered site user visits the lab log details page
-When they go to the comment section under the selected full page view of a lab log post
-Then they can read all the comments with username and the date it was created</t>
-  </si>
-  <si>
-    <t>USER STORY US 14: Site Owners Approval of Comments #18</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/18</t>
-  </si>
-  <si>
-    <t>As a site owner and admin I can review and then approve or disapprove comments so that unsuitable comment can be filtered out as children also would be site users</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that I am the site owner/admin visits the lab log post
-When I see an inappropriate/unsuitable comment posted by any user
-Then I can select one or more comments to approve from the admin page</t>
-  </si>
-  <si>
-    <t>USER STORY US 15: Add or Remove Likes on a Post#19</t>
-  </si>
-  <si>
-    <t>https://github.com/RoshnaVakkeel/Little_Learners_Lab_Logs/issues/19</t>
-  </si>
-  <si>
-    <t>As a signed-in site user I can add like to the lab log posts I liked so that I can guide other users to select simple experiments that may be more interesting</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 1:
-Given that a signed-in site user
-When visits the log post of their liking
-Then they have the option to add or remove like by selecting the Like button on the post along with the number of likes the post received</t>
-  </si>
-  <si>
-    <t>Acceptance Criteria 2:
-Given that site user who is not registered
-When they visit the homepage or lab log posts
-Then they can see the total number of likes a lab log post post received</t>
+Given that new/returning user visits
+When they wish to search a post using keyword
+Then they can type in keyword in Search input field and can arrive at the post with matching keyword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +533,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -498,7 +566,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -510,6 +578,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E16"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,9 +898,10 @@
     <col min="7" max="7" width="38.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="64.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="29.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63.75" customHeight="1">
+    <row r="1" spans="1:10" ht="63.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -840,20 +915,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="109.5" customHeight="1">
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="109.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,384 +940,525 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="87.75" customHeight="1">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="87.75" customHeight="1">
       <c r="E3" s="4"/>
       <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="75">
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="79.5" customHeight="1">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="79.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="60">
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="75">
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="60">
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="90">
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="90">
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="120">
-      <c r="H9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="75">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="75">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="75">
+      <c r="H12" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="120">
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="75">
+      <c r="H13" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="105">
-      <c r="H13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="75">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="75">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="60">
+      <c r="H16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="90">
-      <c r="H16" s="1" t="s">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="60">
+      <c r="H17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="90">
-      <c r="H17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="165">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="90">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="105">
-      <c r="H20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="120">
-      <c r="H21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="75">
+        <v>109</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="60">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="75">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="75">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="150">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="60">
+      <c r="H24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="75">
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="60">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="60">
+      <c r="H28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="75">
+      <c r="E30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="75">
-      <c r="H24" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="105">
-      <c r="E26" s="4" t="s">
+      <c r="G30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="75">
+      <c r="H31" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" ht="75">
+      <c r="H32" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="120">
-      <c r="H27" s="1" t="s">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="60">
+      <c r="H33" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="105">
-      <c r="H28" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="90">
-      <c r="H29" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="105">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="90">
-      <c r="H32" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="105">
-      <c r="H33" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="105">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="90">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="E35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" ht="75">
+      <c r="H36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" ht="75">
+      <c r="H37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="75">
+      <c r="H38" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" ht="60">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" ht="75">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="90">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="4" t="s">
+      <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10" ht="60">
+      <c r="H44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10" ht="75">
+      <c r="H45" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="75">
-      <c r="H36" s="1" t="s">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:10" ht="75">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="120">
-      <c r="H37" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="120">
-      <c r="A39" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" ht="90">
+      <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="135">
-      <c r="A41" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" spans="1:10" ht="75">
+      <c r="H50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" spans="1:10" ht="90">
+      <c r="E52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="105">
+      <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="120">
-      <c r="H42" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="135">
-      <c r="E44" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="135">
-      <c r="A46" s="1" t="s">
+      <c r="E54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="75">
+      <c r="A56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="75">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="135">
-      <c r="A48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="4" t="s">
+      <c r="E58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="105">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="H58" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="75">
+      <c r="H59" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="105">
-      <c r="H51" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1251,23 +1468,25 @@
     <hyperlink ref="E6" r:id="rId3"/>
     <hyperlink ref="E11" r:id="rId4"/>
     <hyperlink ref="E15" r:id="rId5"/>
-    <hyperlink ref="B19" r:id="rId6"/>
-    <hyperlink ref="E19" r:id="rId7"/>
-    <hyperlink ref="E23" r:id="rId8"/>
-    <hyperlink ref="E26" r:id="rId9"/>
-    <hyperlink ref="E31" r:id="rId10"/>
-    <hyperlink ref="E35" r:id="rId11"/>
-    <hyperlink ref="B35" r:id="rId12"/>
-    <hyperlink ref="E39" r:id="rId13"/>
-    <hyperlink ref="E41" r:id="rId14"/>
-    <hyperlink ref="E44" r:id="rId15"/>
-    <hyperlink ref="B46" r:id="rId16"/>
-    <hyperlink ref="E46" r:id="rId17"/>
-    <hyperlink ref="E48" r:id="rId18"/>
-    <hyperlink ref="E50" r:id="rId19"/>
+    <hyperlink ref="B23" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="E27" r:id="rId8"/>
+    <hyperlink ref="E30" r:id="rId9"/>
+    <hyperlink ref="E35" r:id="rId10"/>
+    <hyperlink ref="E43" r:id="rId11"/>
+    <hyperlink ref="B43" r:id="rId12"/>
+    <hyperlink ref="E47" r:id="rId13"/>
+    <hyperlink ref="E49" r:id="rId14"/>
+    <hyperlink ref="E52" r:id="rId15"/>
+    <hyperlink ref="B54" r:id="rId16"/>
+    <hyperlink ref="E54" r:id="rId17"/>
+    <hyperlink ref="E56" r:id="rId18"/>
+    <hyperlink ref="E58" r:id="rId19"/>
+    <hyperlink ref="E40" r:id="rId20"/>
+    <hyperlink ref="E19" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
